--- a/DOC/数据词典.xlsx
+++ b/DOC/数据词典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
   <si>
     <t>后台管理员表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,30 @@
   </si>
   <si>
     <t>主播月排行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1137,6 +1161,15 @@
         <v>39</v>
       </c>
       <c r="D17" s="10"/>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
@@ -1149,6 +1182,15 @@
         <v>40</v>
       </c>
       <c r="D18" s="10"/>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="11" t="s">
